--- a/DataDrivenFrameWork12345/src/test/resources/excel/testdata.xlsx
+++ b/DataDrivenFrameWork12345/src/test/resources/excel/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13020" activeTab="1"/>
+    <workbookView windowWidth="28200" windowHeight="13020" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DesignmateSignUpTest" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>firstname</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>DesignmateSignUpTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -115,14 +118,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,6 +147,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -152,21 +170,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,21 +194,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -220,13 +230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -244,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +438,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,16 +481,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,21 +510,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -521,8 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,8 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,7 +543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,130 +561,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,7 +1098,7 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1165,8 +1168,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1195,7 +1198,7 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
